--- a/Excel_Assignment.xlsx
+++ b/Excel_Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\RT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan\Desktop\Bootcamp.Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133E2B6-15D0-400E-BEC6-D523910E3056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B1839-28B5-418D-8ADE-58473AF90AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{924E5CF3-0193-4F0E-80BC-71EDB032F5EC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{924E5CF3-0193-4F0E-80BC-71EDB032F5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Grocery Store Catalog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,14 @@
     <sheet name="Assignment 1" sheetId="5" r:id="rId6"/>
     <sheet name="Assignment 2 (A)" sheetId="9" r:id="rId7"/>
     <sheet name="Assignment 2 (B)" sheetId="11" r:id="rId8"/>
+    <sheet name="&gt;$250 spent" sheetId="12" r:id="rId9"/>
+    <sheet name="Lettuce" sheetId="13" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'&gt;$250 spent'!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Assignment 1'!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Assignment 2 (B)'!$A$1:$Z$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="134">
   <si>
     <t>Food ID</t>
   </si>
@@ -427,10 +434,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Customer </t>
-  </si>
-  <si>
     <t>No tax</t>
+  </si>
+  <si>
+    <t>ID: 20, 5</t>
   </si>
   <si>
     <r>
@@ -455,7 +462,7 @@
       <t xml:space="preserve">
 1.  Calculate the price each item purchased cost, include a tax rate of 5%
 2. Convert each individual transaction amount from dollars to euros
-3. Calculate the total amount of revenue earned that day, excluding tax
+3. Calculate the total amount of revenue earned that day, including tax
 4. Tell them which customer has the most expensive individual item purchased?
 20, 5
 BONUS = Show Total Revenue with dollar sign or euro sign
@@ -463,7 +470,61 @@
     </r>
   </si>
   <si>
-    <t>ID: 20, 5</t>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CusMomer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirsM </t>
+  </si>
+  <si>
+    <t>LasM</t>
+  </si>
+  <si>
+    <t>SamanMha</t>
+  </si>
+  <si>
+    <t>Moi</t>
+  </si>
+  <si>
+    <t>MarMin</t>
+  </si>
+  <si>
+    <t>Morres</t>
+  </si>
+  <si>
+    <t>SMephanie</t>
+  </si>
+  <si>
+    <t>AlberM</t>
+  </si>
+  <si>
+    <t>WaMers</t>
+  </si>
+  <si>
+    <t>BeMh</t>
+  </si>
+  <si>
+    <t>CaMherine</t>
+  </si>
+  <si>
+    <t>SmiMh</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Customers &gt;$250 Spending</t>
+  </si>
+  <si>
+    <t>Customer ID who bought Lettuce</t>
   </si>
 </sst>
 </file>
@@ -632,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -681,6 +742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,6 +1468,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585768B9-AC05-43AC-9899-2F47AB07A16A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566CE631-1A73-405C-B81A-4A060C97CC48}">
   <dimension ref="A1:C21"/>
@@ -6653,7 +6769,7 @@
   <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7331,10 +7447,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12C3C56-12EF-4EE7-8E21-AE8B9120E366}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7352,7 +7468,7 @@
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7366,7 +7482,7 @@
         <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>83</v>
@@ -7387,18 +7503,27 @@
       <c r="L1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="M1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>4</v>
       </c>
@@ -7424,8 +7549,8 @@
         <v>17.052</v>
       </c>
       <c r="H2" s="13">
-        <f>SUM(E2:E100)</f>
-        <v>2747.6</v>
+        <f>SUM(F2:F100)</f>
+        <v>2884.98</v>
       </c>
       <c r="I2" s="12">
         <f>MAX(G2:G100)</f>
@@ -7437,7 +7562,18 @@
       <c r="L2" s="9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="M2" s="11">
+        <f>AVERAGE(F2:F100)</f>
+        <v>29.141212121212121</v>
+      </c>
+      <c r="N2" s="11">
+        <f>MAX(F2:F100)</f>
+        <v>157.5</v>
+      </c>
+      <c r="O2" s="11">
+        <f>MIN(F2:F100)</f>
+        <v>1.26</v>
+      </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -7445,8 +7581,9 @@
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>7</v>
       </c>
@@ -7476,9 +7613,8 @@
         <v>3346.5767999999985</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="16"/>
+        <v>113</v>
+      </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
@@ -7486,8 +7622,9 @@
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>11</v>
       </c>
@@ -7512,7 +7649,6 @@
         <f t="shared" si="2"/>
         <v>38.975999999999999</v>
       </c>
-      <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -7520,8 +7656,9 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>10</v>
       </c>
@@ -7546,7 +7683,6 @@
         <f t="shared" si="2"/>
         <v>146.16</v>
       </c>
-      <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -7554,8 +7690,9 @@
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>9</v>
       </c>
@@ -7580,7 +7717,6 @@
         <f t="shared" si="2"/>
         <v>121.8</v>
       </c>
-      <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
@@ -7588,8 +7724,9 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -7614,7 +7751,6 @@
         <f t="shared" si="2"/>
         <v>32.886000000000003</v>
       </c>
-      <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -7622,8 +7758,9 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -7648,7 +7785,6 @@
         <f t="shared" si="2"/>
         <v>14.616000000000001</v>
       </c>
-      <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -7656,8 +7792,9 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -7682,7 +7819,6 @@
         <f t="shared" si="2"/>
         <v>3.6540000000000004</v>
       </c>
-      <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -7690,8 +7826,9 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>15</v>
       </c>
@@ -7716,7 +7853,6 @@
         <f t="shared" si="2"/>
         <v>10.474799999999998</v>
       </c>
-      <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -7724,8 +7860,9 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -7750,7 +7887,6 @@
         <f t="shared" si="2"/>
         <v>1.4616</v>
       </c>
-      <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
@@ -7758,8 +7894,9 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -7784,7 +7921,6 @@
         <f t="shared" si="2"/>
         <v>109.61999999999999</v>
       </c>
-      <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
@@ -7792,8 +7928,9 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="16"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -7818,7 +7955,6 @@
         <f t="shared" si="2"/>
         <v>5.8464</v>
       </c>
-      <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -7826,8 +7962,9 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -7852,7 +7989,6 @@
         <f t="shared" si="2"/>
         <v>9.8048999999999982</v>
       </c>
-      <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -7860,8 +7996,9 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -7887,7 +8024,7 @@
         <v>11.6928</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>16</v>
       </c>
@@ -10098,8 +10235,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W1" xr:uid="{C12C3C56-12EF-4EE7-8E21-AE8B9120E366}">
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="O1:V14"/>
+    <mergeCell ref="P1:W14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10108,9 +10254,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B691E2C9-153F-4381-8A4A-E790CED1D923}">
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10121,18 +10269,24 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>90</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>111</v>
@@ -10148,8 +10302,14 @@
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>91</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="21"/>
@@ -10163,8 +10323,14 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>92</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="21"/>
@@ -10178,8 +10344,14 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>93</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="21"/>
@@ -10193,8 +10365,14 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>94</v>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="21"/>
@@ -10208,8 +10386,14 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>95</v>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
       </c>
       <c r="O7" s="20"/>
       <c r="P7" s="21"/>
@@ -10223,8 +10407,14 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>96</v>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="21"/>
@@ -10238,8 +10428,14 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>97</v>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="O9" s="20"/>
       <c r="P9" s="21"/>
@@ -10253,8 +10449,14 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>98</v>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10" s="21"/>
@@ -10268,8 +10470,14 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>99</v>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="21"/>
@@ -10283,8 +10491,14 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>100</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="24"/>
@@ -10298,8 +10512,14 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>101</v>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -10313,8 +10533,14 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>102</v>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -10328,8 +10554,14 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>103</v>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -10343,8 +10575,14 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>104</v>
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -10358,8 +10596,14 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>105</v>
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -10373,568 +10617,47 @@
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>106</v>
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>107</v>
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>105</v>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -10947,45 +10670,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C8014D-1965-4A65-9DA4-ADA1D9642E39}">
-  <dimension ref="A1:W252"/>
+  <dimension ref="A1:Z252"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="7"/>
     <col min="2" max="2" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>16</v>
       </c>
       <c r="B2" s="7">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
         <v>26</v>
+      </c>
+      <c r="E2" s="11">
+        <f>C2*D2*(1+$Z$4)</f>
+        <v>136.5</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>110</v>
@@ -11000,18 +10732,22 @@
       <c r="V2" s="18"/>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>15</v>
       </c>
       <c r="B3" s="7">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11">
         <v>69</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3*D3*(1+$Z$4)</f>
+        <v>362.25</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="21"/>
@@ -11024,18 +10760,22 @@
       <c r="V3" s="21"/>
       <c r="W3" s="22"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>10</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <f>C4*D4*(1+$Z$4)</f>
+        <v>9.4500000000000011</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="21"/>
@@ -11047,19 +10787,26 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z4" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
         <v>42</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C5*D5*(1+$Z$4)</f>
+        <v>44.1</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="21"/>
@@ -11072,18 +10819,22 @@
       <c r="V5" s="21"/>
       <c r="W5" s="22"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>9</v>
       </c>
       <c r="B6" s="7">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
         <v>73</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6*D6*(1+$Z$4)</f>
+        <v>76.650000000000006</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="21"/>
@@ -11096,18 +10847,22 @@
       <c r="V6" s="21"/>
       <c r="W6" s="22"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
         <v>46</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7*(1+$Z$4)</f>
+        <v>96.600000000000009</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
@@ -11120,18 +10875,22 @@
       <c r="V7" s="21"/>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>24</v>
       </c>
       <c r="B8" s="7">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
         <v>50</v>
+      </c>
+      <c r="E8" s="11">
+        <f>C8*D8*(1+$Z$4)</f>
+        <v>210</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="21"/>
@@ -11144,18 +10903,22 @@
       <c r="V8" s="21"/>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9*D9*(1+$Z$4)</f>
+        <v>161.70000000000002</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="21"/>
@@ -11168,18 +10931,22 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>77</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10*D10*(1+$Z$4)</f>
+        <v>39.9</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="21"/>
@@ -11192,18 +10959,22 @@
       <c r="V10" s="21"/>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11*D11*(1+$Z$4)</f>
+        <v>46.2</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
@@ -11216,18 +10987,22 @@
       <c r="V11" s="21"/>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11">
+        <f>C12*D12*(1+$Z$4)</f>
+        <v>246.75</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="21"/>
@@ -11240,18 +11015,22 @@
       <c r="V12" s="21"/>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <f>C13*D13*(1+$Z$4)</f>
+        <v>12.600000000000001</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="21"/>
@@ -11264,18 +11043,22 @@
       <c r="V13" s="21"/>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>32</v>
+      </c>
+      <c r="E14" s="11">
+        <f>C14*D14*(1+$Z$4)</f>
+        <v>168</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="21"/>
@@ -11288,18 +11071,22 @@
       <c r="V14" s="21"/>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11">
+        <f>C15*D15*(1+$Z$4)</f>
+        <v>80.850000000000009</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="24"/>
@@ -11312,3328 +11099,797 @@
       <c r="V15" s="24"/>
       <c r="W15" s="25"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11">
+        <f>C16*D16*(1+$Z$4)</f>
+        <v>122.85000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11">
+        <f>C17*D17*(1+$Z$4)</f>
+        <v>66.150000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11">
+        <f>C18*D18*(1+$Z$4)</f>
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
         <v>21</v>
       </c>
-      <c r="B18" s="7">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="11">
+        <f>C19*D19*(1+$Z$4)</f>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="7">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11">
+        <f>C20*D20*(1+$Z$4)</f>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <f>C21*D21*(1+$Z$4)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>15</v>
-      </c>
-      <c r="B27" s="7">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>15</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>7</v>
-      </c>
-      <c r="B29" s="7">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>2</v>
-      </c>
-      <c r="B30" s="7">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>4</v>
-      </c>
-      <c r="B32" s="7">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>9</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>17</v>
-      </c>
-      <c r="B34" s="7">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>6</v>
-      </c>
-      <c r="B35" s="7">
-        <v>17</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>11</v>
-      </c>
-      <c r="B37" s="7">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>19</v>
-      </c>
-      <c r="B38" s="7">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>27</v>
-      </c>
-      <c r="B39" s="7">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>13</v>
-      </c>
-      <c r="B41" s="7">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>27</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>7</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>18</v>
-      </c>
-      <c r="B44" s="7">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>2</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>16</v>
-      </c>
-      <c r="B46" s="7">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>7</v>
-      </c>
-      <c r="B48" s="7">
-        <v>11</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>13</v>
-      </c>
-      <c r="B49" s="7">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>19</v>
-      </c>
-      <c r="B50" s="7">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>17</v>
-      </c>
-      <c r="B51" s="7">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>5</v>
-      </c>
-      <c r="B52" s="7">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>13</v>
-      </c>
-      <c r="B53" s="7">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>9</v>
-      </c>
-      <c r="B54" s="7">
-        <v>17</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>18</v>
-      </c>
-      <c r="B55" s="7">
-        <v>13</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>5</v>
-      </c>
-      <c r="B56" s="7">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>13</v>
-      </c>
-      <c r="B57" s="7">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>4</v>
-      </c>
-      <c r="B58" s="7">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>17</v>
-      </c>
-      <c r="B59" s="7">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>11</v>
-      </c>
-      <c r="B60" s="7">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>22</v>
-      </c>
-      <c r="B61" s="7">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>3</v>
-      </c>
-      <c r="B62" s="7">
-        <v>10</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>27</v>
-      </c>
-      <c r="B63" s="7">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>21</v>
-      </c>
-      <c r="B64" s="7">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>13</v>
-      </c>
-      <c r="B65" s="7">
-        <v>15</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>13</v>
-      </c>
-      <c r="B66" s="7">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>14</v>
-      </c>
-      <c r="B67" s="7">
-        <v>13</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>15</v>
-      </c>
-      <c r="B68" s="7">
-        <v>9</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>12</v>
-      </c>
-      <c r="B69" s="7">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>12</v>
-      </c>
-      <c r="B70" s="7">
-        <v>10</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>5</v>
-      </c>
-      <c r="B71" s="7">
-        <v>7</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>27</v>
-      </c>
-      <c r="B72" s="7">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>2</v>
-      </c>
-      <c r="B73" s="7">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>19</v>
-      </c>
-      <c r="B74" s="7">
-        <v>11</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>14</v>
-      </c>
-      <c r="B75" s="7">
-        <v>12</v>
-      </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>24</v>
-      </c>
-      <c r="B76" s="7">
-        <v>10</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>12</v>
-      </c>
-      <c r="B77" s="7">
-        <v>15</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>8</v>
-      </c>
-      <c r="B78" s="7">
-        <v>20</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
-        <v>7</v>
-      </c>
-      <c r="B79" s="7">
-        <v>18</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>13</v>
-      </c>
-      <c r="B80" s="7">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>25</v>
-      </c>
-      <c r="B81" s="7">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>6</v>
-      </c>
-      <c r="B82" s="7">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>4</v>
-      </c>
-      <c r="B83" s="7">
-        <v>17</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>15</v>
-      </c>
-      <c r="B84" s="7">
-        <v>20</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>9</v>
-      </c>
-      <c r="B85" s="7">
-        <v>18</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>16</v>
-      </c>
-      <c r="B86" s="7">
-        <v>19</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>9</v>
-      </c>
-      <c r="B87" s="7">
-        <v>20</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="D87">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>25</v>
-      </c>
-      <c r="B88" s="7">
-        <v>10</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>4</v>
-      </c>
-      <c r="B89" s="7">
-        <v>15</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>14</v>
-      </c>
-      <c r="B90" s="7">
-        <v>13</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>1</v>
-      </c>
-      <c r="B91" s="7">
-        <v>14</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>3</v>
-      </c>
-      <c r="B92" s="7">
-        <v>16</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>5</v>
-      </c>
-      <c r="B93" s="7">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>11</v>
-      </c>
-      <c r="B94" s="7">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>26</v>
-      </c>
-      <c r="B95" s="7">
-        <v>7</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>17</v>
-      </c>
-      <c r="B96" s="7">
-        <v>19</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>10</v>
-      </c>
-      <c r="B97" s="7">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>19</v>
-      </c>
-      <c r="B98" s="7">
-        <v>12</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>1</v>
-      </c>
-      <c r="B99" s="7">
-        <v>15</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>10</v>
-      </c>
-      <c r="B100" s="7">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>6</v>
-      </c>
-      <c r="B101" s="7">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>5</v>
-      </c>
-      <c r="B102" s="7">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>8</v>
-      </c>
-      <c r="B103" s="7">
-        <v>20</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
-        <v>12</v>
-      </c>
-      <c r="B104" s="7">
-        <v>5</v>
-      </c>
-      <c r="C104">
-        <v>4</v>
-      </c>
-      <c r="D104">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>3</v>
-      </c>
-      <c r="B105" s="7">
-        <v>14</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>16</v>
-      </c>
-      <c r="B106" s="7">
-        <v>18</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>6</v>
-      </c>
-      <c r="B107" s="7">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>20</v>
-      </c>
-      <c r="B108" s="7">
-        <v>20</v>
-      </c>
-      <c r="C108">
-        <v>5</v>
-      </c>
-      <c r="D108">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
-        <v>24</v>
-      </c>
-      <c r="B109" s="7">
-        <v>5</v>
-      </c>
-      <c r="C109">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
-        <v>13</v>
-      </c>
-      <c r="B110" s="7">
-        <v>16</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-      <c r="D110">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
-        <v>8</v>
-      </c>
-      <c r="B111" s="7">
-        <v>16</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
-        <v>10</v>
-      </c>
-      <c r="B112" s="7">
-        <v>15</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
-        <v>8</v>
-      </c>
-      <c r="B113" s="7">
-        <v>4</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
-        <v>23</v>
-      </c>
-      <c r="B114" s="7">
-        <v>19</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
-        <v>18</v>
-      </c>
-      <c r="B115" s="7">
-        <v>8</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
-        <v>13</v>
-      </c>
-      <c r="B116" s="7">
-        <v>18</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
-        <v>24</v>
-      </c>
-      <c r="B117" s="7">
-        <v>6</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
-        <v>19</v>
-      </c>
-      <c r="B118" s="7">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>5</v>
-      </c>
-      <c r="D118">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
-        <v>12</v>
-      </c>
-      <c r="B119" s="7">
-        <v>20</v>
-      </c>
-      <c r="C119">
-        <v>5</v>
-      </c>
-      <c r="D119">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
-        <v>24</v>
-      </c>
-      <c r="B120" s="7">
-        <v>16</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
-        <v>6</v>
-      </c>
-      <c r="B121" s="7">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
-        <v>11</v>
-      </c>
-      <c r="B122" s="7">
-        <v>17</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
-        <v>19</v>
-      </c>
-      <c r="B123" s="7">
-        <v>17</v>
-      </c>
-      <c r="C123">
-        <v>5</v>
-      </c>
-      <c r="D123">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
-        <v>16</v>
-      </c>
-      <c r="B124" s="7">
-        <v>5</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
-        <v>5</v>
-      </c>
-      <c r="B125" s="7">
-        <v>15</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
-        <v>23</v>
-      </c>
-      <c r="B126" s="7">
-        <v>19</v>
-      </c>
-      <c r="C126">
-        <v>5</v>
-      </c>
-      <c r="D126">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
-        <v>15</v>
-      </c>
-      <c r="B127" s="7">
-        <v>20</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
-        <v>2</v>
-      </c>
-      <c r="B128" s="7">
-        <v>11</v>
-      </c>
-      <c r="C128">
-        <v>4</v>
-      </c>
-      <c r="D128">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
-        <v>27</v>
-      </c>
-      <c r="B129" s="7">
-        <v>8</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
-        <v>4</v>
-      </c>
-      <c r="B130" s="7">
-        <v>9</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
-        <v>14</v>
-      </c>
-      <c r="B131" s="7">
-        <v>15</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
-        <v>24</v>
-      </c>
-      <c r="B132" s="7">
-        <v>5</v>
-      </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
-      <c r="D132">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
-        <v>25</v>
-      </c>
-      <c r="B133" s="7">
-        <v>5</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
-        <v>17</v>
-      </c>
-      <c r="B134" s="7">
-        <v>15</v>
-      </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-      <c r="D134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
-        <v>23</v>
-      </c>
-      <c r="B135" s="7">
-        <v>3</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
-        <v>22</v>
-      </c>
-      <c r="B136" s="7">
-        <v>7</v>
-      </c>
-      <c r="C136">
-        <v>5</v>
-      </c>
-      <c r="D136">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
-        <v>15</v>
-      </c>
-      <c r="B137" s="7">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
-        <v>16</v>
-      </c>
-      <c r="B138" s="7">
-        <v>10</v>
-      </c>
-      <c r="C138">
-        <v>5</v>
-      </c>
-      <c r="D138">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
-        <v>19</v>
-      </c>
-      <c r="B139" s="7">
-        <v>9</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
-        <v>16</v>
-      </c>
-      <c r="B140" s="7">
-        <v>18</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
-        <v>21</v>
-      </c>
-      <c r="B141" s="7">
-        <v>5</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
-        <v>19</v>
-      </c>
-      <c r="B142" s="7">
-        <v>7</v>
-      </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
-      <c r="D142">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
-        <v>10</v>
-      </c>
-      <c r="B143" s="7">
-        <v>11</v>
-      </c>
-      <c r="C143">
-        <v>4</v>
-      </c>
-      <c r="D143">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
-        <v>14</v>
-      </c>
-      <c r="B144" s="7">
-        <v>10</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
-        <v>12</v>
-      </c>
-      <c r="B145" s="7">
-        <v>16</v>
-      </c>
-      <c r="C145">
-        <v>2</v>
-      </c>
-      <c r="D145">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
-        <v>6</v>
-      </c>
-      <c r="B146" s="7">
-        <v>5</v>
-      </c>
-      <c r="C146">
-        <v>4</v>
-      </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
-        <v>18</v>
-      </c>
-      <c r="B147" s="7">
-        <v>18</v>
-      </c>
-      <c r="C147">
-        <v>4</v>
-      </c>
-      <c r="D147">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
-        <v>11</v>
-      </c>
-      <c r="B148" s="7">
-        <v>19</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
-        <v>5</v>
-      </c>
-      <c r="B149" s="7">
-        <v>20</v>
-      </c>
-      <c r="C149">
-        <v>2</v>
-      </c>
-      <c r="D149">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
-        <v>6</v>
-      </c>
-      <c r="B150" s="7">
-        <v>6</v>
-      </c>
-      <c r="C150">
-        <v>4</v>
-      </c>
-      <c r="D150">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
-        <v>13</v>
-      </c>
-      <c r="B151" s="7">
-        <v>6</v>
-      </c>
-      <c r="C151">
-        <v>5</v>
-      </c>
-      <c r="D151">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
-        <v>7</v>
-      </c>
-      <c r="B152" s="7">
-        <v>13</v>
-      </c>
-      <c r="C152">
-        <v>4</v>
-      </c>
-      <c r="D152">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
-        <v>18</v>
-      </c>
-      <c r="B153" s="7">
-        <v>12</v>
-      </c>
-      <c r="C153">
-        <v>2</v>
-      </c>
-      <c r="D153">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
-        <v>1</v>
-      </c>
-      <c r="B154" s="7">
-        <v>2</v>
-      </c>
-      <c r="C154">
-        <v>3</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
-        <v>12</v>
-      </c>
-      <c r="B155" s="7">
-        <v>17</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
-        <v>2</v>
-      </c>
-      <c r="B156" s="7">
-        <v>3</v>
-      </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
-        <v>6</v>
-      </c>
-      <c r="B157" s="7">
-        <v>17</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
-        <v>12</v>
-      </c>
-      <c r="B158" s="7">
-        <v>9</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-      <c r="D158">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
-        <v>27</v>
-      </c>
-      <c r="B159" s="7">
-        <v>15</v>
-      </c>
-      <c r="C159">
-        <v>4</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
-        <v>1</v>
-      </c>
-      <c r="B160" s="7">
-        <v>13</v>
-      </c>
-      <c r="C160">
-        <v>5</v>
-      </c>
-      <c r="D160">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
-        <v>5</v>
-      </c>
-      <c r="B161" s="7">
-        <v>8</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
-        <v>19</v>
-      </c>
-      <c r="B162" s="7">
-        <v>10</v>
-      </c>
-      <c r="C162">
-        <v>4</v>
-      </c>
-      <c r="D162">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
-        <v>6</v>
-      </c>
-      <c r="B163" s="7">
-        <v>13</v>
-      </c>
-      <c r="C163">
-        <v>5</v>
-      </c>
-      <c r="D163">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
-        <v>8</v>
-      </c>
-      <c r="B164" s="7">
-        <v>17</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
-        <v>15</v>
-      </c>
-      <c r="B165" s="7">
-        <v>11</v>
-      </c>
-      <c r="C165">
-        <v>4</v>
-      </c>
-      <c r="D165">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
-        <v>27</v>
-      </c>
-      <c r="B166" s="7">
-        <v>16</v>
-      </c>
-      <c r="C166">
-        <v>4</v>
-      </c>
-      <c r="D166">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="7">
-        <v>3</v>
-      </c>
-      <c r="B167" s="7">
-        <v>4</v>
-      </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-      <c r="D167">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
-        <v>5</v>
-      </c>
-      <c r="B168" s="7">
-        <v>7</v>
-      </c>
-      <c r="C168">
-        <v>5</v>
-      </c>
-      <c r="D168">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
-        <v>16</v>
-      </c>
-      <c r="B169" s="7">
-        <v>17</v>
-      </c>
-      <c r="C169">
-        <v>5</v>
-      </c>
-      <c r="D169">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
-        <v>22</v>
-      </c>
-      <c r="B170" s="7">
-        <v>6</v>
-      </c>
-      <c r="C170">
-        <v>5</v>
-      </c>
-      <c r="D170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
-        <v>14</v>
-      </c>
-      <c r="B171" s="7">
-        <v>17</v>
-      </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-      <c r="D171">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
-        <v>21</v>
-      </c>
-      <c r="B172" s="7">
-        <v>18</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
-        <v>26</v>
-      </c>
-      <c r="B173" s="7">
-        <v>5</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
-        <v>13</v>
-      </c>
-      <c r="B174" s="7">
-        <v>5</v>
-      </c>
-      <c r="C174">
-        <v>4</v>
-      </c>
-      <c r="D174">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
-        <v>23</v>
-      </c>
-      <c r="B175" s="7">
-        <v>4</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
-        <v>27</v>
-      </c>
-      <c r="B176" s="7">
-        <v>16</v>
-      </c>
-      <c r="C176">
-        <v>4</v>
-      </c>
-      <c r="D176">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
-        <v>8</v>
-      </c>
-      <c r="B177" s="7">
-        <v>5</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
-        <v>9</v>
-      </c>
-      <c r="B178" s="7">
-        <v>10</v>
-      </c>
-      <c r="C178">
-        <v>4</v>
-      </c>
-      <c r="D178">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
-        <v>10</v>
-      </c>
-      <c r="B179" s="7">
-        <v>2</v>
-      </c>
-      <c r="C179">
-        <v>4</v>
-      </c>
-      <c r="D179">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
-        <v>6</v>
-      </c>
-      <c r="B180" s="7">
-        <v>18</v>
-      </c>
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="7">
-        <v>12</v>
-      </c>
-      <c r="B181" s="7">
-        <v>2</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="7">
-        <v>19</v>
-      </c>
-      <c r="B182" s="7">
-        <v>17</v>
-      </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-      <c r="D182">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="7">
-        <v>2</v>
-      </c>
-      <c r="B183" s="7">
-        <v>3</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-      <c r="D183">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="7">
-        <v>7</v>
-      </c>
-      <c r="B184" s="7">
-        <v>14</v>
-      </c>
-      <c r="C184">
-        <v>2</v>
-      </c>
-      <c r="D184">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="7">
-        <v>5</v>
-      </c>
-      <c r="B185" s="7">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>3</v>
-      </c>
-      <c r="D185">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="7">
-        <v>9</v>
-      </c>
-      <c r="B186" s="7">
-        <v>13</v>
-      </c>
-      <c r="C186">
-        <v>4</v>
-      </c>
-      <c r="D186">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="7">
-        <v>27</v>
-      </c>
-      <c r="B187" s="7">
-        <v>8</v>
-      </c>
-      <c r="C187">
-        <v>4</v>
-      </c>
-      <c r="D187">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="7">
-        <v>15</v>
-      </c>
-      <c r="B188" s="7">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="7">
-        <v>15</v>
-      </c>
-      <c r="B189" s="7">
-        <v>20</v>
-      </c>
-      <c r="C189">
-        <v>3</v>
-      </c>
-      <c r="D189">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="7">
-        <v>26</v>
-      </c>
-      <c r="B190" s="7">
-        <v>2</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="7">
-        <v>8</v>
-      </c>
-      <c r="B191" s="7">
-        <v>6</v>
-      </c>
-      <c r="C191">
-        <v>4</v>
-      </c>
-      <c r="D191">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="7">
-        <v>17</v>
-      </c>
-      <c r="B192" s="7">
-        <v>10</v>
-      </c>
-      <c r="C192">
-        <v>2</v>
-      </c>
-      <c r="D192">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="7">
-        <v>8</v>
-      </c>
-      <c r="B193" s="7">
-        <v>4</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="7">
-        <v>18</v>
-      </c>
-      <c r="B194" s="7">
-        <v>8</v>
-      </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
-        <v>24</v>
-      </c>
-      <c r="B195" s="7">
-        <v>19</v>
-      </c>
-      <c r="C195">
-        <v>3</v>
-      </c>
-      <c r="D195">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
-        <v>2</v>
-      </c>
-      <c r="B196" s="7">
-        <v>3</v>
-      </c>
-      <c r="C196">
-        <v>4</v>
-      </c>
-      <c r="D196">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="7">
-        <v>18</v>
-      </c>
-      <c r="B197" s="7">
-        <v>4</v>
-      </c>
-      <c r="C197">
-        <v>5</v>
-      </c>
-      <c r="D197">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
-        <v>15</v>
-      </c>
-      <c r="B198" s="7">
-        <v>18</v>
-      </c>
-      <c r="C198">
-        <v>4</v>
-      </c>
-      <c r="D198">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="7">
-        <v>25</v>
-      </c>
-      <c r="B199" s="7">
-        <v>7</v>
-      </c>
-      <c r="C199">
-        <v>2</v>
-      </c>
-      <c r="D199">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
-        <v>8</v>
-      </c>
-      <c r="B200" s="7">
-        <v>13</v>
-      </c>
-      <c r="C200">
-        <v>5</v>
-      </c>
-      <c r="D200">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="7">
-        <v>14</v>
-      </c>
-      <c r="B201" s="7">
-        <v>3</v>
-      </c>
-      <c r="C201">
-        <v>3</v>
-      </c>
-      <c r="D201">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
-        <v>5</v>
-      </c>
-      <c r="B202" s="7">
-        <v>8</v>
-      </c>
-      <c r="C202">
-        <v>4</v>
-      </c>
-      <c r="D202">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="7">
-        <v>5</v>
-      </c>
-      <c r="B203" s="7">
-        <v>7</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
-        <v>13</v>
-      </c>
-      <c r="B204" s="7">
-        <v>17</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="7">
-        <v>6</v>
-      </c>
-      <c r="B205" s="7">
-        <v>14</v>
-      </c>
-      <c r="C205">
-        <v>5</v>
-      </c>
-      <c r="D205">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="7">
-        <v>11</v>
-      </c>
-      <c r="B206" s="7">
-        <v>7</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="7">
-        <v>25</v>
-      </c>
-      <c r="B207" s="7">
-        <v>19</v>
-      </c>
-      <c r="C207">
-        <v>3</v>
-      </c>
-      <c r="D207">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="7">
-        <v>3</v>
-      </c>
-      <c r="B208" s="7">
-        <v>11</v>
-      </c>
-      <c r="C208">
-        <v>4</v>
-      </c>
-      <c r="D208">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="7">
-        <v>21</v>
-      </c>
-      <c r="B209" s="7">
-        <v>9</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="7">
-        <v>13</v>
-      </c>
-      <c r="B210" s="7">
-        <v>11</v>
-      </c>
-      <c r="C210">
-        <v>5</v>
-      </c>
-      <c r="D210">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="7">
-        <v>10</v>
-      </c>
-      <c r="B211" s="7">
-        <v>19</v>
-      </c>
-      <c r="C211">
-        <v>4</v>
-      </c>
-      <c r="D211">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="7">
-        <v>13</v>
-      </c>
-      <c r="B212" s="7">
-        <v>19</v>
-      </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-      <c r="D212">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="7">
-        <v>21</v>
-      </c>
-      <c r="B213" s="7">
-        <v>9</v>
-      </c>
-      <c r="C213">
-        <v>3</v>
-      </c>
-      <c r="D213">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="7">
-        <v>6</v>
-      </c>
-      <c r="B214" s="7">
-        <v>9</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-      <c r="D214">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="7">
-        <v>6</v>
-      </c>
-      <c r="B215" s="7">
-        <v>10</v>
-      </c>
-      <c r="C215">
-        <v>3</v>
-      </c>
-      <c r="D215">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="7">
-        <v>3</v>
-      </c>
-      <c r="B216" s="7">
-        <v>16</v>
-      </c>
-      <c r="C216">
-        <v>4</v>
-      </c>
-      <c r="D216">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="7">
-        <v>12</v>
-      </c>
-      <c r="B217" s="7">
-        <v>7</v>
-      </c>
-      <c r="C217">
-        <v>5</v>
-      </c>
-      <c r="D217">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="7">
-        <v>9</v>
-      </c>
-      <c r="B218" s="7">
-        <v>7</v>
-      </c>
-      <c r="C218">
-        <v>3</v>
-      </c>
-      <c r="D218">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="7">
-        <v>20</v>
-      </c>
-      <c r="B219" s="7">
-        <v>20</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="7">
-        <v>15</v>
-      </c>
-      <c r="B220" s="7">
-        <v>17</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="7">
-        <v>1</v>
-      </c>
-      <c r="B221" s="7">
-        <v>2</v>
-      </c>
-      <c r="C221">
-        <v>2</v>
-      </c>
-      <c r="D221">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="7">
-        <v>20</v>
-      </c>
-      <c r="B222" s="7">
-        <v>5</v>
-      </c>
-      <c r="C222">
-        <v>5</v>
-      </c>
-      <c r="D222">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="7">
-        <v>25</v>
-      </c>
-      <c r="B223" s="7">
-        <v>11</v>
-      </c>
-      <c r="C223">
-        <v>5</v>
-      </c>
-      <c r="D223">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="7">
-        <v>15</v>
-      </c>
-      <c r="B224" s="7">
-        <v>1</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="7">
-        <v>9</v>
-      </c>
-      <c r="B225" s="7">
-        <v>20</v>
-      </c>
-      <c r="C225">
-        <v>3</v>
-      </c>
-      <c r="D225">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="7">
-        <v>3</v>
-      </c>
-      <c r="B226" s="7">
-        <v>3</v>
-      </c>
-      <c r="C226">
-        <v>3</v>
-      </c>
-      <c r="D226">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="7">
-        <v>26</v>
-      </c>
-      <c r="B227" s="7">
-        <v>19</v>
-      </c>
-      <c r="C227">
-        <v>3</v>
-      </c>
-      <c r="D227">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="7">
-        <v>17</v>
-      </c>
-      <c r="B228" s="7">
-        <v>19</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="7">
-        <v>20</v>
-      </c>
-      <c r="B229" s="7">
-        <v>13</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="7">
-        <v>21</v>
-      </c>
-      <c r="B230" s="7">
-        <v>6</v>
-      </c>
-      <c r="C230">
-        <v>4</v>
-      </c>
-      <c r="D230">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="7">
-        <v>25</v>
-      </c>
-      <c r="B231" s="7">
-        <v>19</v>
-      </c>
-      <c r="C231">
-        <v>2</v>
-      </c>
-      <c r="D231">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="7">
-        <v>1</v>
-      </c>
-      <c r="B232" s="7">
-        <v>14</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="7">
-        <v>1</v>
-      </c>
-      <c r="B233" s="7">
-        <v>10</v>
-      </c>
-      <c r="C233">
-        <v>5</v>
-      </c>
-      <c r="D233">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="7">
-        <v>23</v>
-      </c>
-      <c r="B234" s="7">
-        <v>7</v>
-      </c>
-      <c r="C234">
-        <v>4</v>
-      </c>
-      <c r="D234">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="7">
-        <v>10</v>
-      </c>
-      <c r="B235" s="7">
-        <v>7</v>
-      </c>
-      <c r="C235">
-        <v>4</v>
-      </c>
-      <c r="D235">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="7">
-        <v>2</v>
-      </c>
-      <c r="B236" s="7">
-        <v>13</v>
-      </c>
-      <c r="C236">
-        <v>3</v>
-      </c>
-      <c r="D236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="7">
-        <v>4</v>
-      </c>
-      <c r="B237" s="7">
-        <v>18</v>
-      </c>
-      <c r="C237">
-        <v>5</v>
-      </c>
-      <c r="D237">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="7">
-        <v>2</v>
-      </c>
-      <c r="B238" s="7">
-        <v>11</v>
-      </c>
-      <c r="C238">
-        <v>4</v>
-      </c>
-      <c r="D238">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="7">
-        <v>17</v>
-      </c>
-      <c r="B239" s="7">
-        <v>19</v>
-      </c>
-      <c r="C239">
-        <v>3</v>
-      </c>
-      <c r="D239">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="7">
-        <v>9</v>
-      </c>
-      <c r="B240" s="7">
-        <v>6</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="7">
-        <v>15</v>
-      </c>
-      <c r="B241" s="7">
-        <v>12</v>
-      </c>
-      <c r="C241">
-        <v>5</v>
-      </c>
-      <c r="D241">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="7">
-        <v>9</v>
-      </c>
-      <c r="B242" s="7">
-        <v>4</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="7">
-        <v>1</v>
-      </c>
-      <c r="B243" s="7">
-        <v>1</v>
-      </c>
-      <c r="C243">
-        <v>4</v>
-      </c>
-      <c r="D243">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="7">
-        <v>16</v>
-      </c>
-      <c r="B244" s="7">
-        <v>17</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="7">
-        <v>5</v>
-      </c>
-      <c r="B245" s="7">
-        <v>18</v>
-      </c>
-      <c r="C245">
-        <v>3</v>
-      </c>
-      <c r="D245">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="7">
-        <v>27</v>
-      </c>
-      <c r="B246" s="7">
-        <v>8</v>
-      </c>
-      <c r="C246">
-        <v>2</v>
-      </c>
-      <c r="D246">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="7">
-        <v>26</v>
-      </c>
-      <c r="B247" s="7">
-        <v>18</v>
-      </c>
-      <c r="C247">
-        <v>5</v>
-      </c>
-      <c r="D247">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="7">
-        <v>18</v>
-      </c>
-      <c r="B248" s="7">
-        <v>8</v>
-      </c>
-      <c r="C248">
-        <v>3</v>
-      </c>
-      <c r="D248">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="7">
-        <v>22</v>
-      </c>
-      <c r="B249" s="7">
-        <v>18</v>
-      </c>
-      <c r="C249">
-        <v>5</v>
-      </c>
-      <c r="D249">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="7">
-        <v>23</v>
-      </c>
-      <c r="B250" s="7">
-        <v>13</v>
-      </c>
-      <c r="C250">
-        <v>4</v>
-      </c>
-      <c r="D250">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="7">
-        <v>4</v>
-      </c>
-      <c r="B251" s="7">
-        <v>17</v>
-      </c>
-      <c r="C251">
-        <v>5</v>
-      </c>
-      <c r="D251">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="7">
-        <v>5</v>
-      </c>
-      <c r="B252" s="7">
-        <v>10</v>
-      </c>
-      <c r="C252">
-        <v>3</v>
-      </c>
-      <c r="D252">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:Z21" xr:uid="{76C8014D-1965-4A65-9DA4-ADA1D9642E39}"/>
   <mergeCells count="1">
     <mergeCell ref="N2:W15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67CCA7B-0EC3-44B5-A412-5CDF79AC63E9}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11">
+        <f>C2*D2*(1+$Z$4)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3*D3*(1+$Z$4)</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <f>C4*D4*(1+$Z$4)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C5*D5*(1+$Z$4)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>73</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6*D6*(1+$Z$4)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7*(1+$Z$4)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11">
+        <f>C8*D8*(1+$Z$4)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>77</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9*D9*(1+$Z$4)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10*D10*(1+$Z$4)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11*D11*(1+$Z$4)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <f>C13*D13*(1+$Z$4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>32</v>
+      </c>
+      <c r="E14" s="11">
+        <f>C14*D14*(1+$Z$4)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>77</v>
+      </c>
+      <c r="E15" s="11">
+        <f>C15*D15*(1+$Z$4)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11">
+        <f>C16*D16*(1+$Z$4)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11">
+        <f>C17*D17*(1+$Z$4)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11">
+        <f>C18*D18*(1+$Z$4)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11">
+        <f>C19*D19*(1+$Z$4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11">
+        <f>C20*D20*(1+$Z$4)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <f>C21*D21*(1+$Z$4)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F21" xr:uid="{F67CCA7B-0EC3-44B5-A412-5CDF79AC63E9}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="$345.00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>